--- a/src/main/resources/template/人才储备.xlsx
+++ b/src/main/resources/template/人才储备.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>用户名称</t>
   </si>
@@ -42,13 +42,13 @@
     <t>期望薪资</t>
   </si>
   <si>
-    <t>意向职位</t>
-  </si>
-  <si>
-    <t>现居住地</t>
-  </si>
-  <si>
-    <t>小明</t>
+    <t>工作经验</t>
+  </si>
+  <si>
+    <t>现居住地址</t>
+  </si>
+  <si>
+    <t>新明月</t>
   </si>
   <si>
     <t>男</t>
@@ -57,10 +57,16 @@
     <t>不限</t>
   </si>
   <si>
-    <t>医生</t>
-  </si>
-  <si>
-    <t>小李</t>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>发大水</t>
+  </si>
+  <si>
+    <t>dsfas</t>
+  </si>
+  <si>
+    <t>佐助</t>
   </si>
   <si>
     <t>女</t>
@@ -69,10 +75,16 @@
     <t>初中及以下</t>
   </si>
   <si>
+    <t>河北大学</t>
+  </si>
+  <si>
+    <t>顶顶顶</t>
+  </si>
+  <si>
     <t>3-5k</t>
   </si>
   <si>
-    <t>护士</t>
+    <t>dfasdf</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -123,6 +135,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -132,6 +152,97 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,105 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,26 +459,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,10 +491,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -508,9 +518,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,17 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,16 +576,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,112 +597,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1124,35 +1136,49 @@
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1163,14 +1189,14 @@
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1:A3 A4:A1048576" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B1048576">
-      <formula1>"男,女,未知"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"不限,在校生,应届生,1年以内,1-3年,3-5年,5-10年,10年以上"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"不限,初中及以下,中专/中技,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B1048576">
+      <formula1>"男,女,未知"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"不限,3k以下,3-5k,5-10k,10-15k,15-20k,20-30k,30-50k,50k以上"</formula1>

--- a/src/main/resources/template/人才储备.xlsx
+++ b/src/main/resources/template/人才储备.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>用户名称</t>
   </si>
@@ -30,6 +30,9 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>电话号码</t>
+  </si>
+  <si>
     <t>学历</t>
   </si>
   <si>
@@ -48,7 +51,10 @@
     <t>现居住地址</t>
   </si>
   <si>
-    <t>新明月</t>
+    <t>技能/简介</t>
+  </si>
+  <si>
+    <t>李晓云</t>
   </si>
   <si>
     <t>男</t>
@@ -60,13 +66,19 @@
     <t>武汉大学</t>
   </si>
   <si>
-    <t>发大水</t>
-  </si>
-  <si>
-    <t>dsfas</t>
-  </si>
-  <si>
-    <t>佐助</t>
+    <t>汽车销售</t>
+  </si>
+  <si>
+    <t>10-15k</t>
+  </si>
+  <si>
+    <t>广州深圳</t>
+  </si>
+  <si>
+    <t>工作八年，熟悉各大品牌汽车。及二手车鉴定检验</t>
+  </si>
+  <si>
+    <t>邓云</t>
   </si>
   <si>
     <t>女</t>
@@ -78,13 +90,13 @@
     <t>河北大学</t>
   </si>
   <si>
-    <t>顶顶顶</t>
-  </si>
-  <si>
-    <t>3-5k</t>
-  </si>
-  <si>
-    <t>dfasdf</t>
+    <t>厨师长</t>
+  </si>
+  <si>
+    <t>15-20k</t>
+  </si>
+  <si>
+    <t>从事厨师30年，在五星级大酒店担任厨师长多年</t>
   </si>
 </sst>
 </file>
@@ -92,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,12 +141,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -150,31 +184,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,29 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,35 +247,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,21 +468,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,38 +488,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +527,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -556,6 +550,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1086,15 +1098,17 @@
     <col min="1" max="1" width="21.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
-    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="18.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="22.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="21.2222222222222" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="50.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="65.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.2" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="22.2" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,10 +1124,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1122,83 +1136,101 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2">
+        <v>13360515926</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3">
+        <v>13362560633</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3">
+  <autoFilter ref="A1:I3">
     <extLst/>
   </autoFilter>
   <dataValidations count="5">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1:A3 A4:A1048576" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 I$1:I$1048576 J4:J1048576">
       <formula1>"不限,在校生,应届生,1年以内,1-3年,3-5年,5-10年,10年以上"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>"不限,初中及以下,中专/中技,高中,大专,本科,硕士,博士"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B4:B1048576">
       <formula1>"男,女,未知"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A1:A3 A4:A1048576" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"不限,初中及以下,中专/中技,高中,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"不限,3k以下,3-5k,5-10k,10-15k,15-20k,20-30k,30-50k,50k以上"</formula1>
     </dataValidation>
   </dataValidations>
